--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3C42A5-4845-49CC-B76B-7CC5802E5D0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D840886F-8329-4434-98F4-21FC319FCDDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{73EE44F6-0DC1-4C23-9D8F-31B8801211B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:style(lastCell="J20" styleName="m_style")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -117,9 +130,6 @@
     <t>B_STYLE</t>
   </si>
   <si>
-    <t>Colore:</t>
-  </si>
-  <si>
     <t>Colori:</t>
   </si>
   <si>
@@ -181,6 +191,21 @@
   </si>
   <si>
     <t>Se un valore non è stato scritto in maniera corretta, o se mancherà, verrà impostato automaticamente al valore di default.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TURQUOISE</t>
+  </si>
+  <si>
+    <t>LIGHT_TURQUOISE</t>
+  </si>
+  <si>
+    <t>Color:</t>
   </si>
 </sst>
 </file>
@@ -283,21 +308,6 @@
       <left style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -327,8 +337,104 @@
       <left style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -336,91 +442,12 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -430,25 +457,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -456,6 +478,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,18 +799,23 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -796,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,37 +839,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>23</v>
+      <c r="A1" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>15</v>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,7 +878,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
@@ -853,17 +886,15 @@
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
@@ -871,7 +902,9 @@
       <c r="E9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -879,7 +912,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,68 +921,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9676C-3BD1-4753-9B9E-6C45C69AE028}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>18</v>
+      <c r="A1" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="A7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="D8" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="D10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="D10" t="s">
+      <c r="B11" s="16"/>
+      <c r="D11" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="D11" t="s">
-        <v>20</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D840886F-8329-4434-98F4-21FC319FCDDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D0AA8-64F2-4EE0-8B6D-A60F421C1943}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Settings" sheetId="3" r:id="rId2"/>
-    <sheet name="Legenda" sheetId="4" r:id="rId3"/>
+    <sheet name="FUN" sheetId="5" r:id="rId2"/>
+    <sheet name="Settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Legenda" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +56,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:smeuptest(lastCell="B7" condition = "x&lt;6")</t>
+          <t>jx:smeuptest(lastCell="A10" condition = "x&lt;6")</t>
         </r>
       </text>
     </comment>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -193,12 +194,6 @@
     <t>Se un valore non è stato scritto in maniera corretta, o se mancherà, verrà impostato automaticamente al valore di default.</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>TURQUOISE</t>
   </si>
   <si>
@@ -206,6 +201,18 @@
   </si>
   <si>
     <t>Color:</t>
+  </si>
+  <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>Inserire le FUN necessarie in qualsiasi punto del foglio.</t>
+  </si>
+  <si>
+    <t>Scrivere possibilmente ciascuna FUN sulla stessa riga.</t>
+  </si>
+  <si>
+    <t>F(TIPO; PARAMETRO; OGGETTO)</t>
   </si>
 </sst>
 </file>
@@ -769,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,15 +814,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -826,6 +828,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E29C8-83D6-462E-9941-045D45D3E5EC}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -860,7 +898,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
@@ -878,7 +916,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
@@ -919,12 +957,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9676C-3BD1-4753-9B9E-6C45C69AE028}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,12 +1028,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D0AA8-64F2-4EE0-8B6D-A60F421C1943}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB29F440-E268-4EA7-B9D2-3FDABAE3687A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0F9B7353-CB98-4121-AE33-183A490F5F94}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0F9B7353-CB98-4121-AE33-183A490F5F94}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3C034274-8866-48C2-98B2-C89645BA26AF}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{3C034274-8866-48C2-98B2-C89645BA26AF}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{971F3465-E6CC-4D87-8307-BE7FB5177391}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{971F3465-E6CC-4D87-8307-BE7FB5177391}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>F(TIPO; PARAMETRO; OGGETTO)</t>
+  </si>
+  <si>
+    <t>U_STYLE</t>
+  </si>
+  <si>
+    <t>BLACK</t>
   </si>
 </sst>
 </file>
@@ -369,14 +375,77 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -388,76 +457,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -475,9 +479,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -485,12 +488,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,15 +799,15 @@
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>13</v>
@@ -838,7 +842,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -865,34 +869,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -906,11 +911,12 @@
       <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -918,15 +924,14 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -934,23 +939,29 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -971,7 +982,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -981,58 +992,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="12"/>
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="13"/>
+      <c r="D9" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="14"/>
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="15"/>
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB29F440-E268-4EA7-B9D2-3FDABAE3687A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A8654-2600-4F7C-836B-DFC6C7F776C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
     <sheet name="Settings" sheetId="3" r:id="rId3"/>
     <sheet name="Legenda" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,6 +92,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{403CA750-08F7-4962-A3DD-3B1D5B9B342B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:template(lastCell="B16")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D15" authorId="0" shapeId="0" xr:uid="{FE4AFE60-0C17-42F0-A6EF-00484C73E950}">
       <text>
         <r>
@@ -117,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -215,10 +234,10 @@
     <t>F(TIPO; PARAMETRO; OGGETTO)</t>
   </si>
   <si>
-    <t>U_STYLE</t>
-  </si>
-  <si>
-    <t>BLACK</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>${x}</t>
   </si>
 </sst>
 </file>
@@ -300,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -324,26 +343,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -372,17 +371,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -468,19 +456,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -489,12 +474,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +792,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>13</v>
@@ -836,13 +835,13 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -869,10 +868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +881,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -898,23 +897,23 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -928,8 +927,10 @@
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -946,22 +947,61 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,7 +1013,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +1022,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -992,58 +1032,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="9"/>
+      <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="10"/>
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="11"/>
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="12"/>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A8654-2600-4F7C-836B-DFC6C7F776C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96327F7-1BF0-485A-B2A6-0EC7BC4F24B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="AA20")
+          <t xml:space="preserve">jx:area(lastCell="AA40")
 </t>
         </r>
       </text>
@@ -128,6 +128,19 @@
             <family val="2"/>
           </rPr>
           <t>jx:style(lastCell="J20" styleName="m_style")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{14C35D13-A274-41C3-8B4E-41FE89E0F08A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:template(lastCell="I31")</t>
         </r>
       </text>
     </comment>
@@ -765,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +836,7 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96327F7-1BF0-485A-B2A6-0EC7BC4F24B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D8D8FE-96CC-48C3-B80A-ED8A46364CC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FUN" sheetId="5" r:id="rId2"/>
-    <sheet name="Settings" sheetId="3" r:id="rId3"/>
-    <sheet name="Legenda" sheetId="4" r:id="rId4"/>
+    <sheet name="ImgPath" sheetId="6" r:id="rId2"/>
+    <sheet name="FUN" sheetId="5" r:id="rId3"/>
+    <sheet name="Settings" sheetId="3" r:id="rId4"/>
+    <sheet name="Legenda" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,8 +149,57 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{49D9B310-197B-49BE-AB12-8ED776A5954E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="AA100")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{0C36CB62-1CEE-418B-8A32-5FD624FDEDC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="A7", direction="DOWN", var="obj", items="f02_col01")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2224058D-0D2F-4D28-BCC7-9EE267534EE1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="B7", direction="DOWN", var="obj", items="f02_col13")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -244,13 +294,49 @@
     <t>Scrivere possibilmente ciascuna FUN sulla stessa riga.</t>
   </si>
   <si>
-    <t>F(TIPO; PARAMETRO; OGGETTO)</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>${x}</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>FUN Sheet</t>
+  </si>
+  <si>
+    <t>D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\xml\fromloocup2.xml</t>
+  </si>
+  <si>
+    <t>F(EXB;B£SER_43B;EMIMAT) 1(;;) 2(;;) INPUT()</t>
+  </si>
+  <si>
+    <t>${sgo_test}</t>
+  </si>
+  <si>
+    <t>Img Path</t>
+  </si>
+  <si>
+    <t>Verifica l'override del metodo getFormattedValueForCell.</t>
+  </si>
+  <si>
+    <t>Il risultato aspettato è il path con il simbolo "$" posto all'inizio e alla fine.</t>
+  </si>
+  <si>
+    <t>D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\xml\richimg.xml</t>
+  </si>
+  <si>
+    <t>${obj}</t>
   </si>
 </sst>
 </file>
@@ -780,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,17 +893,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,33 +931,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E29C8-83D6-462E-9941-045D45D3E5EC}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBC63F-0D85-4A6D-9C85-B3CF8EF791BD}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E29C8-83D6-462E-9941-045D45D3E5EC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +1043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1022,7 +1185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9676C-3BD1-4753-9B9E-6C45C69AE028}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/src/main/resources/custom_commands/excel/command_template.xlsx
+++ b/src/main/resources/custom_commands/excel/command_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D8D8FE-96CC-48C3-B80A-ED8A46364CC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F9B8D-54DC-4030-B12B-9D603E2555CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
